--- a/Domínguez Burgos Marioscar 20212.xlsx
+++ b/Domínguez Burgos Marioscar 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="803">
   <si>
     <t>NC</t>
   </si>
@@ -781,6 +781,9 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>LARA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -811,6 +814,9 @@
     <t>PAZ</t>
   </si>
   <si>
+    <t>VILLAR</t>
+  </si>
+  <si>
     <t>MONTERO</t>
   </si>
   <si>
@@ -856,6 +862,9 @@
     <t>SALOMON</t>
   </si>
   <si>
+    <t>VICTOR SAUL</t>
+  </si>
+  <si>
     <t>ALEXIS YAIR</t>
   </si>
   <si>
@@ -907,6 +916,9 @@
     <t>salhomartinez@gmail.com</t>
   </si>
   <si>
+    <t>villars789@gmail.com</t>
+  </si>
+  <si>
     <t>alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -961,6 +973,9 @@
     <t>2722606082</t>
   </si>
   <si>
+    <t>2721691246</t>
+  </si>
+  <si>
     <t>2721811447</t>
   </si>
   <si>
@@ -1030,6 +1045,9 @@
     <t>SALOMÓN DE JESUS EVARISTO</t>
   </si>
   <si>
+    <t>LETICIA VILLAR HERNANDEZ</t>
+  </si>
+  <si>
     <t>ALEJANDRO MARTÍNEZ AMEZCUA</t>
   </si>
   <si>
@@ -1069,6 +1087,9 @@
     <t>salomartinez9610@gmail.com</t>
   </si>
   <si>
+    <t>luna13.notaria@gmail.com</t>
+  </si>
+  <si>
     <t>Alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -1103,6 +1124,9 @@
   </si>
   <si>
     <t>2721843803</t>
+  </si>
+  <si>
+    <t>2722328582</t>
   </si>
   <si>
     <t>2722290436</t>
@@ -3920,7 +3944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3981,19 +4005,19 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4007,25 +4031,25 @@
         <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4039,25 +4063,25 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4071,28 +4095,28 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4106,25 +4130,25 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J6" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -4141,19 +4165,19 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -4170,25 +4194,25 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4202,28 +4226,28 @@
         <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J9" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4240,22 +4264,22 @@
         <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="J10" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4272,22 +4296,22 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I11" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="J11" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4301,28 +4325,28 @@
         <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J12" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4330,69 +4354,63 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920067</v>
+        <v>19330051920064</v>
       </c>
       <c r="B13" t="s">
         <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="J13" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920068</v>
+        <v>19330051920067</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H14" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="J14" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4400,31 +4418,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920069</v>
+        <v>19330051920068</v>
       </c>
       <c r="B15" t="s">
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F15" t="s">
-        <v>316</v>
+        <v>320</v>
+      </c>
+      <c r="G15" t="s">
+        <v>320</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I15" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="J15" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4432,63 +4453,63 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920074</v>
+        <v>19330051920069</v>
       </c>
       <c r="B16" t="s">
         <v>256</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>358</v>
       </c>
       <c r="J16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>18330051920078</v>
+        <v>19330051920074</v>
       </c>
       <c r="B17" t="s">
         <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H17" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I17" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="J17" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4496,25 +4517,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920075</v>
+        <v>18330051920078</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F18" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H18" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="I18" t="s">
+        <v>359</v>
+      </c>
+      <c r="J18" t="s">
+        <v>373</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -4522,36 +4549,62 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
+        <v>19330051920075</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
         <v>19330051920081</v>
       </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F19" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" t="s">
         <v>325</v>
       </c>
-      <c r="H19" t="s">
-        <v>343</v>
-      </c>
-      <c r="I19" t="s">
-        <v>353</v>
-      </c>
-      <c r="J19" t="s">
-        <v>366</v>
-      </c>
-      <c r="K19">
+      <c r="G20" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" t="s">
+        <v>360</v>
+      </c>
+      <c r="J20" t="s">
+        <v>374</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
     </row>
@@ -4617,31 +4670,31 @@
         <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="H2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="I2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="J2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4652,31 +4705,31 @@
         <v>19330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G3" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H3" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="I3" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="J3" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4687,28 +4740,28 @@
         <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G4" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H4" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="I4" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4719,31 +4772,31 @@
         <v>19330051920273</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G5" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H5" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="I5" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="J5" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -4754,28 +4807,28 @@
         <v>19330051920268</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D6" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="G6" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H6" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="J6" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -4786,28 +4839,28 @@
         <v>19330051920274</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="J7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4821,28 +4874,28 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H8" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="I8" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="J8" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -4859,22 +4912,22 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F9" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="I9" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="J9" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -4885,28 +4938,28 @@
         <v>18330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F10" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H10" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="I10" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="J10" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4923,25 +4976,25 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F11" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G11" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H11" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="I11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="J11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4955,25 +5008,25 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F12" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H12" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="I12" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="J12" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4987,28 +5040,28 @@
         <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E13" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F13" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G13" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="H13" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="I13" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="J13" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5022,28 +5075,28 @@
         <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F14" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G14" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="I14" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="J14" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5054,31 +5107,31 @@
         <v>19330051920447</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G15" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="H15" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="I15" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="J15" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -5092,28 +5145,28 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F16" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G16" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H16" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="I16" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="J16" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5124,28 +5177,28 @@
         <v>19330051920286</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D17" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E17" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F17" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G17" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="H17" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="J17" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5156,28 +5209,28 @@
         <v>18330051920336</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F18" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H18" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="I18" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="J18" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5188,28 +5241,28 @@
         <v>19330051920287</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C19" t="s">
         <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F19" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H19" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="I19" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="J19" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5223,28 +5276,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E20" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G20" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H20" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="I20" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="J20" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5261,25 +5314,25 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G21" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H21" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="I21" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="J21" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5290,28 +5343,28 @@
         <v>19330051920292</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E22" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F22" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G22" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H22" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="J22" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -5322,31 +5375,31 @@
         <v>19330051920293</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F23" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G23" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H23" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="I23" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="J23" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5357,28 +5410,28 @@
         <v>19330051920294</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E24" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F24" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H24" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="I24" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="J24" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -5395,25 +5448,25 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F25" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G25" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H25" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="I25" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="J25" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -5427,28 +5480,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D26" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E26" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="F26" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G26" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H26" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="I26" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="J26" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -5459,31 +5512,31 @@
         <v>19330051920297</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F27" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H27" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="I27" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="J27" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5494,31 +5547,31 @@
         <v>19330051920298</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E28" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F28" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G28" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="H28" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="I28" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="J28" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -5529,31 +5582,31 @@
         <v>19330051920299</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E29" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F29" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G29" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H29" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="I29" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="J29" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -5564,28 +5617,28 @@
         <v>19330051920301</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D30" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E30" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H30" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="I30" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="J30" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -5596,31 +5649,31 @@
         <v>19330051920443</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E31" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F31" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G31" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="H31" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="I31" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="J31" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -5631,28 +5684,28 @@
         <v>19330051920300</v>
       </c>
       <c r="B32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E32" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F32" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="H32" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="I32" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="J32" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -5663,28 +5716,28 @@
         <v>19330051920305</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D33" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E33" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F33" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="H33" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I33" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="J33" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -5755,28 +5808,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="D2" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E2" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="F2" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G2" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="I2" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="J2" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5787,31 +5840,31 @@
         <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C3" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D3" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E3" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="F3" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G3" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="H3" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="I3" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="J3" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -5822,31 +5875,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D4" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E4" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="F4" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="G4" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="H4" t="s">
+        <v>728</v>
+      </c>
+      <c r="I4" t="s">
+        <v>759</v>
+      </c>
+      <c r="J4" t="s">
         <v>720</v>
-      </c>
-      <c r="I4" t="s">
-        <v>751</v>
-      </c>
-      <c r="J4" t="s">
-        <v>712</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5857,31 +5910,31 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="C5" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D5" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E5" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="F5" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="H5" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="I5" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="J5" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5889,31 +5942,31 @@
         <v>19330051920316</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="C6" t="s">
         <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="E6" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F6" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G6" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="H6" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="I6" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="J6" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5927,25 +5980,25 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="E7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="H7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="I7" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="J7" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5959,19 +6012,19 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="D8" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="E8" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F8" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="H8" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5982,28 +6035,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E9" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="F9" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="H9" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="I9" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="J9" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -6020,22 +6073,22 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="E10" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F10" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G10" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="H10" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="J10" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -6049,28 +6102,28 @@
         <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D11" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E11" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F11" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="G11" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="H11" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="I11" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="J11" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -6087,25 +6140,25 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E12" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="F12" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G12" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="H12" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="I12" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="J12" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -6119,25 +6172,25 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="E13" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="H13" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="I13" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="J13" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -6148,28 +6201,28 @@
         <v>19330051920332</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
         <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="E14" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="F14" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="G14" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="H14" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="J14" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -6180,28 +6233,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B15" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="E15" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="F15" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="H15" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="I15" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="J15" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -6212,31 +6265,31 @@
         <v>19330051920333</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D16" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="E16" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="F16" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="G16" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="H16" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="I16" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="J16" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -6247,28 +6300,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C17" t="s">
         <v>251</v>
       </c>
       <c r="D17" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="E17" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="F17" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="H17" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="I17" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="J17" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6279,31 +6332,31 @@
         <v>19330051920337</v>
       </c>
       <c r="B18" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E18" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="F18" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="G18" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="H18" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="I18" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="J18" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -6314,31 +6367,31 @@
         <v>19330051920338</v>
       </c>
       <c r="B19" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="D19" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E19" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="F19" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="G19" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="H19" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="I19" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="J19" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6349,22 +6402,22 @@
         <v>19330051920342</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D20" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="E20" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="F20" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="H20" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -6375,31 +6428,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B21" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C21" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D21" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="E21" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="F21" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="G21" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="H21" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="I21" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="J21" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -6410,28 +6463,28 @@
         <v>19330051920344</v>
       </c>
       <c r="B22" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="E22" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="F22" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="H22" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="I22" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="J22" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6442,31 +6495,31 @@
         <v>19330051920347</v>
       </c>
       <c r="B23" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C23" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D23" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="E23" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="F23" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="G23" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="H23" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="I23" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="J23" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -6483,22 +6536,22 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="E24" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="F24" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="G24" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="H24" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="J24" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -6512,28 +6565,28 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E25" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="F25" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="G25" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="H25" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="I25" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="J25" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -6547,28 +6600,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D26" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="E26" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="F26" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="G26" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="H26" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="I26" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="J26" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -6579,31 +6632,31 @@
         <v>19330051920350</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C27" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D27" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="E27" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F27" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="G27" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="H27" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="I27" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="J27" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -6614,31 +6667,31 @@
         <v>19330051920351</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C28" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D28" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="E28" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="F28" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="G28" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="H28" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="I28" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="J28" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -6649,25 +6702,25 @@
         <v>19330051920352</v>
       </c>
       <c r="B29" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D29" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="E29" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="F29" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="H29" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="J29" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -6684,25 +6737,25 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="E30" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="F30" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G30" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="H30" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="I30" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="J30" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -6713,22 +6766,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B31" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="E31" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="F31" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="H31" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -6748,22 +6801,22 @@
         <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="F32" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G32" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="H32" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="I32" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="J32" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="K32">
         <v>0</v>

--- a/Domínguez Burgos Marioscar 20212.xlsx
+++ b/Domínguez Burgos Marioscar 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="809">
   <si>
     <t>NC</t>
   </si>
@@ -1840,6 +1840,9 @@
     <t>BELLO</t>
   </si>
   <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
     <t>CERVANTES</t>
   </si>
   <si>
@@ -1882,6 +1885,9 @@
     <t>ARENAS</t>
   </si>
   <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
     <t>AULIS</t>
   </si>
   <si>
@@ -1915,6 +1921,9 @@
     <t>JOSMAR ANTONIO</t>
   </si>
   <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
     <t>GIOVANNI</t>
   </si>
   <si>
@@ -2005,6 +2014,9 @@
     <t>belloarenas123@gmail.com</t>
   </si>
   <si>
+    <t>kevininamador11@gmail.com</t>
+  </si>
+  <si>
     <t>gioglez2004@gmail.com</t>
   </si>
   <si>
@@ -2098,6 +2110,9 @@
     <t>2721855688</t>
   </si>
   <si>
+    <t>2722355008</t>
+  </si>
+  <si>
     <t>2722620504</t>
   </si>
   <si>
@@ -2207,6 +2222,9 @@
   </si>
   <si>
     <t>JOSE ANTONIO BELLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CELIA AMADOR GARCIA</t>
   </si>
   <si>
     <t>CASILDO CERVANTES MOLOHUA</t>
@@ -5750,7 +5768,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5808,28 +5826,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="G2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="I2" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="J2" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5843,28 +5861,28 @@
         <v>604</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="G3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H3" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="I3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J3" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -5878,28 +5896,28 @@
         <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F4" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="H4" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="I4" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="J4" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5913,25 +5931,25 @@
         <v>606</v>
       </c>
       <c r="C5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E5" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="H5" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="I5" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="J5" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5939,156 +5957,150 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920316</v>
+        <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
         <v>607</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>622</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E6" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H6" t="s">
-        <v>730</v>
-      </c>
-      <c r="I6" t="s">
-        <v>662</v>
-      </c>
-      <c r="J6" t="s">
-        <v>780</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920318</v>
+        <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>608</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F7" t="s">
-        <v>694</v>
+        <v>698</v>
+      </c>
+      <c r="G7" t="s">
+        <v>698</v>
       </c>
       <c r="H7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="I7" t="s">
-        <v>761</v>
+        <v>666</v>
       </c>
       <c r="J7" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920319</v>
+        <v>19330051920318</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>621</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F8" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H8" t="s">
-        <v>732</v>
+        <v>737</v>
+      </c>
+      <c r="I8" t="s">
+        <v>767</v>
+      </c>
+      <c r="J8" t="s">
+        <v>787</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920323</v>
+        <v>19330051920319</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>623</v>
       </c>
       <c r="D9" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H9" t="s">
-        <v>733</v>
-      </c>
-      <c r="I9" t="s">
-        <v>762</v>
-      </c>
-      <c r="J9" t="s">
-        <v>782</v>
+        <v>738</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920441</v>
+        <v>19330051920323</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F10" t="s">
-        <v>697</v>
-      </c>
-      <c r="G10" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="H10" t="s">
-        <v>734</v>
+        <v>739</v>
+      </c>
+      <c r="I10" t="s">
+        <v>768</v>
       </c>
       <c r="J10" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -6096,165 +6108,165 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920325</v>
+        <v>19330051920441</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>622</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E11" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F11" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="G11" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="H11" t="s">
-        <v>735</v>
-      </c>
-      <c r="I11" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="J11" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920321</v>
+        <v>19330051920325</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>624</v>
       </c>
       <c r="D12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E12" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F12" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="G12" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="H12" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="I12" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="J12" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920330</v>
+        <v>19330051920321</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E13" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F13" t="s">
-        <v>700</v>
+        <v>704</v>
+      </c>
+      <c r="G13" t="s">
+        <v>704</v>
       </c>
       <c r="H13" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="I13" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="J13" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920332</v>
+        <v>19330051920330</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E14" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F14" t="s">
-        <v>701</v>
-      </c>
-      <c r="G14" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H14" t="s">
-        <v>738</v>
+        <v>743</v>
+      </c>
+      <c r="I14" t="s">
+        <v>771</v>
       </c>
       <c r="J14" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920331</v>
+        <v>19330051920332</v>
       </c>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E15" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F15" t="s">
-        <v>702</v>
+        <v>706</v>
+      </c>
+      <c r="G15" t="s">
+        <v>706</v>
       </c>
       <c r="H15" t="s">
-        <v>739</v>
-      </c>
-      <c r="I15" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="J15" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -6262,66 +6274,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920333</v>
+        <v>19330051920331</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>609</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E16" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F16" t="s">
-        <v>703</v>
-      </c>
-      <c r="G16" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H16" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="I16" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="J16" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920334</v>
+        <v>19330051920333</v>
       </c>
       <c r="B17" t="s">
-        <v>609</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>385</v>
       </c>
       <c r="D17" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E17" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F17" t="s">
-        <v>704</v>
+        <v>708</v>
+      </c>
+      <c r="G17" t="s">
+        <v>708</v>
       </c>
       <c r="H17" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="I17" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="J17" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6329,95 +6341,101 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920337</v>
+        <v>19330051920334</v>
       </c>
       <c r="B18" t="s">
         <v>610</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E18" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F18" t="s">
-        <v>705</v>
-      </c>
-      <c r="G18" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="H18" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="I18" t="s">
-        <v>674</v>
+        <v>774</v>
       </c>
       <c r="J18" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920338</v>
+        <v>19330051920337</v>
       </c>
       <c r="B19" t="s">
         <v>611</v>
       </c>
       <c r="C19" t="s">
-        <v>623</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E19" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F19" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="G19" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="H19" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="I19" t="s">
-        <v>769</v>
+        <v>678</v>
       </c>
       <c r="J19" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920342</v>
+        <v>19330051920338</v>
       </c>
       <c r="B20" t="s">
-        <v>264</v>
+        <v>612</v>
       </c>
       <c r="C20" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D20" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E20" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F20" t="s">
-        <v>707</v>
+        <v>711</v>
+      </c>
+      <c r="G20" t="s">
+        <v>727</v>
       </c>
       <c r="H20" t="s">
-        <v>744</v>
+        <v>749</v>
+      </c>
+      <c r="I20" t="s">
+        <v>775</v>
+      </c>
+      <c r="J20" t="s">
+        <v>798</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -6425,238 +6443,229 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920341</v>
+        <v>19330051920342</v>
       </c>
       <c r="B21" t="s">
-        <v>612</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="D21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E21" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F21" t="s">
-        <v>708</v>
-      </c>
-      <c r="G21" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H21" t="s">
-        <v>745</v>
-      </c>
-      <c r="I21" t="s">
-        <v>770</v>
-      </c>
-      <c r="J21" t="s">
-        <v>793</v>
+        <v>750</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920344</v>
+        <v>19330051920341</v>
       </c>
       <c r="B22" t="s">
-        <v>385</v>
+        <v>613</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>615</v>
       </c>
       <c r="D22" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E22" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F22" t="s">
-        <v>709</v>
+        <v>713</v>
+      </c>
+      <c r="G22" t="s">
+        <v>713</v>
       </c>
       <c r="H22" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="I22" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="J22" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920347</v>
+        <v>19330051920344</v>
       </c>
       <c r="B23" t="s">
-        <v>613</v>
+        <v>385</v>
       </c>
       <c r="C23" t="s">
-        <v>625</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E23" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F23" t="s">
-        <v>710</v>
-      </c>
-      <c r="G23" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H23" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="I23" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="J23" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920440</v>
+        <v>19330051920347</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>614</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>627</v>
       </c>
       <c r="D24" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E24" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F24" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="G24" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H24" t="s">
-        <v>748</v>
+        <v>753</v>
+      </c>
+      <c r="I24" t="s">
+        <v>683</v>
       </c>
       <c r="J24" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920345</v>
+        <v>19330051920440</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E25" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F25" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="G25" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="H25" t="s">
-        <v>749</v>
-      </c>
-      <c r="I25" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="J25" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920346</v>
+        <v>19330051920345</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>626</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E26" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F26" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="G26" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H26" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="I26" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="J26" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920350</v>
+        <v>19330051920346</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D27" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E27" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F27" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="G27" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="H27" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="I27" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="J27" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -6664,34 +6673,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920351</v>
+        <v>19330051920350</v>
       </c>
       <c r="B28" t="s">
-        <v>614</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
+        <v>629</v>
       </c>
       <c r="D28" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E28" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F28" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="G28" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H28" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="I28" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="J28" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -6699,63 +6708,63 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920352</v>
+        <v>19330051920351</v>
       </c>
       <c r="B29" t="s">
         <v>615</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D29" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E29" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F29" t="s">
-        <v>716</v>
+        <v>720</v>
+      </c>
+      <c r="G29" t="s">
+        <v>730</v>
       </c>
       <c r="H29" t="s">
-        <v>753</v>
+        <v>758</v>
+      </c>
+      <c r="I29" t="s">
+        <v>781</v>
       </c>
       <c r="J29" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920354</v>
+        <v>19330051920352</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>616</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="D30" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E30" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F30" t="s">
-        <v>717</v>
-      </c>
-      <c r="G30" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H30" t="s">
-        <v>754</v>
-      </c>
-      <c r="I30" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="J30" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -6763,62 +6772,97 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>19330051920353</v>
+        <v>19330051920354</v>
       </c>
       <c r="B31" t="s">
-        <v>616</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E31" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F31" t="s">
-        <v>718</v>
+        <v>722</v>
+      </c>
+      <c r="G31" t="s">
+        <v>722</v>
       </c>
       <c r="H31" t="s">
-        <v>755</v>
+        <v>760</v>
+      </c>
+      <c r="I31" t="s">
+        <v>782</v>
+      </c>
+      <c r="J31" t="s">
+        <v>807</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
+        <v>19330051920353</v>
+      </c>
+      <c r="B32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>660</v>
+      </c>
+      <c r="E32" t="s">
+        <v>691</v>
+      </c>
+      <c r="F32" t="s">
+        <v>723</v>
+      </c>
+      <c r="H32" t="s">
+        <v>761</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
         <v>19330051920355</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>55</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E32" t="s">
-        <v>688</v>
-      </c>
-      <c r="F32" t="s">
-        <v>719</v>
-      </c>
-      <c r="G32" t="s">
-        <v>719</v>
-      </c>
-      <c r="H32" t="s">
-        <v>756</v>
-      </c>
-      <c r="I32" t="s">
-        <v>688</v>
-      </c>
-      <c r="J32" t="s">
-        <v>802</v>
-      </c>
-      <c r="K32">
+      <c r="E33" t="s">
+        <v>692</v>
+      </c>
+      <c r="F33" t="s">
+        <v>724</v>
+      </c>
+      <c r="G33" t="s">
+        <v>724</v>
+      </c>
+      <c r="H33" t="s">
+        <v>762</v>
+      </c>
+      <c r="I33" t="s">
+        <v>692</v>
+      </c>
+      <c r="J33" t="s">
+        <v>808</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
     </row>

--- a/Domínguez Burgos Marioscar 20212.xlsx
+++ b/Domínguez Burgos Marioscar 20212.xlsx
@@ -4398,6 +4398,9 @@
       <c r="J13" t="s">
         <v>369</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
@@ -5219,7 +5222,7 @@
         <v>590</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5452,7 +5455,7 @@
         <v>596</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5980,6 +5983,9 @@
       <c r="H6" t="s">
         <v>735</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
